--- a/mosip_master/xlsx/id_type.xlsx
+++ b/mosip_master/xlsx/id_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -116,39 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">ID utilisé par un fournisseur pour un demandeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رقم التعريف الفريد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الهوية الوطنية الممنوحة لمقدم الطلب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معرف التسجيل المسبق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تم تعيين المعرف بعد التسجيل المسبق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معرف تسجيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المعرف المعين بعد التسجيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المعرف الظاهري</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المعرف المستخدم في استبدال UIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معرف الرمز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المعرف المستخدم من قبل البائع لمقدم الطلب</t>
   </si>
 </sst>
 </file>
@@ -239,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,10 +225,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -281,18 +244,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:D16"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -480,91 +439,6 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/id_type.xlsx
+++ b/mosip_master/xlsx/id_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -149,105 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">المعرف المستخدم من قبل البائع لمقدم الطلب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ವಿಶಿಷ್ಟ ಗುರುತಿನ ಸಂಖ್ಯೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಅರ್ಜಿದಾರರಿಗೆ ನೀಡಲಾದ ರಾಷ್ಟ್ರೀಯ ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪೂರ್ವ-ನೋಂದಣಿ ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪೂರ್ವ-ನೋಂದಣಿ ನಂತರ ID ನಿಯೋಜಿಸಲಾಗಿದೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನೋಂದಣಿ ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನೋಂದಣಿ ನಂತರ ID ನಿಯೋಜಿಸಲಾಗಿದೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ವರ್ಚುವಲ್ ಐಡಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIN ಬದಲಿಗೆ ID ಬಳಸಲಾಗಿದೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಟೋಕನ್ ಐಡಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಅರ್ಜಿದಾರರಿಗೆ ಮಾರಾಟಗಾರರಿಂದ ID ಬಳಸಲಾಗಿದೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">विशिष्ट पहचान संख्या</t>
-  </si>
-  <si>
-    <t xml:space="preserve">आवेदक को दी गई राष्ट्रीय पहचान पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्री-रजिस्ट्रेशन आईडी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पूर्व-पंजीकरण के बाद दी गई आईडी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पंजीयन पहचान</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पंजीकरण के बाद सौंपी गई आईडी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">वर्चुअल आईडी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">यूआईएन के स्थान पर उपयोग की जाने वाली आईडी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">टोकन आईडी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक आवेदक के लिए एक विक्रेता द्वारा उपयोग की जाने वाली आईडी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">தனிப்பட்ட அடையாள எண்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">விண்ணப்பதாரருக்கு வழங்கப்பட்ட தேசிய அடையாள அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">முன் பதிவு ஐடி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">முன் பதிவு செய்த பிறகு ஐடி ஒதுக்கப்படும்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பதிவு ஐடி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பதிவு செய்த பிறகு ஐடி ஒதுக்கப்பட்டது</t>
-  </si>
-  <si>
-    <t xml:space="preserve">மெய்நிகர் ஐடி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UINக்கு மாற்றாக ஐடி பயன்படுத்தப்பட்டது</t>
-  </si>
-  <si>
-    <t xml:space="preserve">டோக்கன் ஐடி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">விண்ணப்பதாரருக்கு விற்பனையாளர் பயன்படுத்தும் ஐடி</t>
   </si>
 </sst>
 </file>
@@ -380,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,261 +568,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
